--- a/Overall Stats/Adams/Adams Report.xlsx
+++ b/Overall Stats/Adams/Adams Report.xlsx
@@ -1,40 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Adams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Adams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3560CE5-8DD9-4481-9E3F-2D278C509433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785DBFAB-4879-42EB-9247-4158EA5EAACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
     <sheet name="2018" sheetId="1" r:id="rId2"/>
     <sheet name="2019" sheetId="4" r:id="rId3"/>
-    <sheet name="Overall Stats" sheetId="3" r:id="rId4"/>
+    <sheet name="2020" sheetId="5" r:id="rId4"/>
+    <sheet name="Overall Stats" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="68">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -214,13 +209,37 @@
   </si>
   <si>
     <t>Fishing Report 2019 Adams</t>
+  </si>
+  <si>
+    <t>4 Rainbow</t>
+  </si>
+  <si>
+    <t>11 Rainbow 1 Wiper</t>
+  </si>
+  <si>
+    <t>1 Bluegill 5 Rainbow</t>
+  </si>
+  <si>
+    <t>2 Bluegill 2 LM Bass 1 Rainbow</t>
+  </si>
+  <si>
+    <t>7 Rainbow</t>
+  </si>
+  <si>
+    <t>Adams Report 2020</t>
+  </si>
+  <si>
+    <t>LM Bass</t>
+  </si>
+  <si>
+    <t>Slow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +320,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -361,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -409,9 +435,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -423,6 +446,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,6 +457,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -704,7 +736,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -713,10 +745,10 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>522</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1258,19 +1290,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.9470198675496695</c:v>
+                  <c:v>7.7507598784194522</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16556291390728478</c:v>
+                  <c:v>0.1519756838905775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6357615894039732</c:v>
+                  <c:v>4.2553191489361701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.423841059602651</c:v>
+                  <c:v>86.626139817629181</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82781456953642385</c:v>
+                  <c:v>0.91185410334346495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3792,8 +3824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BE291A-4AC8-4F55-A56D-82876014ACC8}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3817,7 +3849,7 @@
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -3825,10 +3857,10 @@
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="29" t="s">
@@ -3837,8 +3869,8 @@
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -3866,7 +3898,7 @@
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="8">
@@ -3894,7 +3926,7 @@
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="8">
@@ -3918,7 +3950,7 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="8"/>
@@ -3945,7 +3977,7 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="8"/>
@@ -3972,12 +4004,12 @@
         <v>0.92165898617511521</v>
       </c>
       <c r="J7" s="18"/>
-      <c r="K7" s="25"/>
+      <c r="K7" s="24"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="8"/>
@@ -3998,7 +4030,7 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
@@ -4019,7 +4051,7 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="8"/>
@@ -4040,7 +4072,7 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="8"/>
@@ -4061,7 +4093,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8"/>
@@ -4082,7 +4114,7 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
@@ -4103,7 +4135,7 @@
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="8"/>
@@ -4124,7 +4156,7 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="8"/>
@@ -4189,6 +4221,391 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F554279C-9D13-40B6-AC1F-9D2031B696E4}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8">
+        <v>3</v>
+      </c>
+      <c r="I4" s="8">
+        <v>2</v>
+      </c>
+      <c r="J4" s="8">
+        <v>48</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8">
+        <v>22</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="18">
+        <f>SUM(H4/$F14*100)</f>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="I7" s="18">
+        <f t="shared" ref="I7:K7" si="0">SUM(I4/$F14*100)</f>
+        <v>3.7037037037037033</v>
+      </c>
+      <c r="J7" s="18">
+        <f t="shared" si="0"/>
+        <v>88.888888888888886</v>
+      </c>
+      <c r="K7" s="18">
+        <f t="shared" si="0"/>
+        <v>1.8518518518518516</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8">
+        <v>14</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8">
+        <v>12</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8">
+        <v>9</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
+        <v>23</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8">
+        <v>6</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
+        <v>28</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8">
+        <v>5</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8">
+        <v>7</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8">
+        <v>13</v>
+      </c>
+      <c r="F13" s="8">
+        <v>3</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="10">
+        <f>SUM(F4:F13)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="12">
+        <f>AVERAGE(F4:F13)</f>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H5:K5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1CA989-3A01-4014-AE07-8387268A40B0}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -4233,8 +4650,8 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f>SUM('2017'!G4+'2018'!K4+'2019'!G4)</f>
-        <v>48</v>
+        <f>SUM('2017'!G4+'2018'!K4+'2019'!G4+'2020'!H4)</f>
+        <v>51</v>
       </c>
       <c r="B3" s="8">
         <f>SUM('2018'!I4)</f>
@@ -4245,12 +4662,12 @@
         <v>28</v>
       </c>
       <c r="D3" s="8">
-        <f>SUM('2017'!H4+'2018'!L4+'2019'!H4)</f>
-        <v>522</v>
+        <f>SUM('2017'!H4+'2018'!L4+'2019'!H4+'2020'!J4)</f>
+        <v>570</v>
       </c>
       <c r="E3" s="8">
-        <f>SUM('2017'!I4+'2019'!I4)</f>
-        <v>5</v>
+        <f>SUM('2017'!I4+'2019'!I4+'2020'!K4)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -4282,23 +4699,23 @@
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <f>SUM(A3/$B$8*100)</f>
-        <v>7.9470198675496695</v>
+        <v>7.7507598784194522</v>
       </c>
       <c r="B6" s="18">
         <f>SUM(B3/$B$8*100)</f>
-        <v>0.16556291390728478</v>
+        <v>0.1519756838905775</v>
       </c>
       <c r="C6" s="18">
         <f>SUM(C3/$B$8*100)</f>
-        <v>4.6357615894039732</v>
+        <v>4.2553191489361701</v>
       </c>
       <c r="D6" s="18">
         <f>SUM(D3/$B$8*100)</f>
-        <v>86.423841059602651</v>
+        <v>86.626139817629181</v>
       </c>
       <c r="E6" s="18">
         <f>SUM(E3/$B$8*100)</f>
-        <v>0.82781456953642385</v>
+        <v>0.91185410334346495</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4306,17 +4723,17 @@
         <v>21</v>
       </c>
       <c r="B8" s="15">
-        <f>SUM('2017'!D25+'2018'!G20+'2019'!E16)</f>
-        <v>604</v>
+        <f>SUM('2017'!D25+'2018'!G20+'2019'!E16+'2020'!F14)</f>
+        <v>658</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="15">
-        <f>SUM('2017'!D26+'2018'!G21+'2019'!E17)</f>
-        <v>50</v>
+      <c r="B9" s="17">
+        <f>SUM('2017'!D26+'2018'!G21+'2019'!E17+'2020'!F15)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4325,15 +4742,15 @@
       </c>
       <c r="B10" s="17">
         <f>SUM(B8/B9)</f>
-        <v>12.08</v>
+        <v>10.966666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>52</v>
+      <c r="B11" s="31" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Overall Stats/Adams/Adams Report.xlsx
+++ b/Overall Stats/Adams/Adams Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Adams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785DBFAB-4879-42EB-9247-4158EA5EAACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F8D0D0-2C8F-4BE1-A603-6160E372036A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -226,13 +226,13 @@
     <t>7 Rainbow</t>
   </si>
   <si>
-    <t>Adams Report 2020</t>
-  </si>
-  <si>
     <t>LM Bass</t>
   </si>
   <si>
     <t>Slow</t>
+  </si>
+  <si>
+    <t>Fishing Report 2020 Adams</t>
   </si>
 </sst>
 </file>
@@ -446,6 +446,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -457,12 +463,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2910,22 +2910,22 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
@@ -2991,12 +2991,12 @@
       <c r="E5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -3392,23 +3392,23 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -3489,12 +3489,12 @@
       <c r="H5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -3852,23 +3852,23 @@
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
     </row>
@@ -3940,12 +3940,12 @@
       <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
@@ -4224,13 +4224,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F554279C-9D13-40B6-AC1F-9D2031B696E4}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
@@ -4248,7 +4248,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4261,24 +4261,24 @@
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
     </row>
@@ -4302,7 +4302,7 @@
         <v>28</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>25</v>
@@ -4360,12 +4360,12 @@
       <c r="G5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
@@ -4389,7 +4389,7 @@
         <v>28</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>25</v>
@@ -4591,8 +4591,8 @@
       <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="30" t="s">
-        <v>67</v>
+      <c r="F17" s="26" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4609,7 +4609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1CA989-3A01-4014-AE07-8387268A40B0}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -4623,13 +4623,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -4671,13 +4671,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -4749,8 +4749,8 @@
       <c r="A11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>67</v>
+      <c r="B11" s="27" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Overall Stats/Adams/Adams Report.xlsx
+++ b/Overall Stats/Adams/Adams Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Adams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F8D0D0-2C8F-4BE1-A603-6160E372036A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F074D48F-81CE-486F-BD1B-98895782EE45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Overall Stats/Adams/Adams Report.xlsx
+++ b/Overall Stats/Adams/Adams Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Adams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F074D48F-81CE-486F-BD1B-98895782EE45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A613F108-94CE-4BB2-ADFF-8EC74D01AB6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="68">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -347,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -382,12 +382,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -462,6 +480,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -708,9 +733,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Overall Stats'!$A$2:$E$2</c:f>
+              <c:f>'Overall Stats'!$A$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Bluegill</c:v>
                 </c:pt>
@@ -721,9 +746,12 @@
                   <c:v>Brown</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>LM Bass</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Rainbow</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Wiper</c:v>
                 </c:pt>
               </c:strCache>
@@ -731,10 +759,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Overall Stats'!$A$3:$E$3</c:f>
+              <c:f>'Overall Stats'!$A$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>51</c:v>
                 </c:pt>
@@ -745,9 +773,12 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>570</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -1260,11 +1291,54 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Overall Stats'!$A$5:$E$5</c:f>
+              <c:f>'Overall Stats'!$A$5:$F$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Bluegill</c:v>
                 </c:pt>
@@ -1275,9 +1349,12 @@
                   <c:v>Brown</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>LM Bass</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Rainbow</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Wiper</c:v>
                 </c:pt>
               </c:strCache>
@@ -1285,10 +1362,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Overall Stats'!$A$6:$E$6</c:f>
+              <c:f>'Overall Stats'!$A$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>7.7507598784194522</c:v>
                 </c:pt>
@@ -1299,9 +1376,12 @@
                   <c:v>4.2553191489361701</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.303951367781155</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>86.626139817629181</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.91185410334346495</c:v>
                 </c:pt>
               </c:numCache>
@@ -4224,7 +4304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F554279C-9D13-40B6-AC1F-9D2031B696E4}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -4607,10 +4687,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1CA989-3A01-4014-AE07-8387268A40B0}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4618,11 +4698,12 @@
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>24</v>
       </c>
@@ -4630,8 +4711,9 @@
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>28</v>
       </c>
@@ -4642,13 +4724,16 @@
         <v>26</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>SUM('2017'!G4+'2018'!K4+'2019'!G4+'2020'!H4)</f>
         <v>51</v>
@@ -4662,15 +4747,19 @@
         <v>28</v>
       </c>
       <c r="D3" s="8">
+        <f>SUM('2020'!I4)</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="8">
         <f>SUM('2017'!H4+'2018'!L4+'2019'!H4+'2020'!J4)</f>
         <v>570</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F3" s="8">
         <f>SUM('2017'!I4+'2019'!I4+'2020'!K4)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>29</v>
       </c>
@@ -4679,7 +4768,7 @@
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
@@ -4690,35 +4779,42 @@
         <v>26</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <f>SUM(A3/$B$8*100)</f>
         <v>7.7507598784194522</v>
       </c>
       <c r="B6" s="18">
-        <f>SUM(B3/$B$8*100)</f>
+        <f t="shared" ref="B6:F6" si="0">SUM(B3/$B$8*100)</f>
         <v>0.1519756838905775</v>
       </c>
       <c r="C6" s="18">
-        <f>SUM(C3/$B$8*100)</f>
+        <f t="shared" si="0"/>
         <v>4.2553191489361701</v>
       </c>
       <c r="D6" s="18">
-        <f>SUM(D3/$B$8*100)</f>
+        <f t="shared" si="0"/>
+        <v>0.303951367781155</v>
+      </c>
+      <c r="E6" s="18">
+        <f t="shared" si="0"/>
         <v>86.626139817629181</v>
       </c>
-      <c r="E6" s="18">
-        <f>SUM(E3/$B$8*100)</f>
+      <c r="F6" s="18">
+        <f t="shared" si="0"/>
         <v>0.91185410334346495</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>21</v>
       </c>
@@ -4727,7 +4823,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
@@ -4736,7 +4832,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
@@ -4745,7 +4841,7 @@
         <v>10.966666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>51</v>
       </c>

--- a/Overall Stats/Adams/Adams Report.xlsx
+++ b/Overall Stats/Adams/Adams Report.xlsx
@@ -1,35 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Adams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A613F108-94CE-4BB2-ADFF-8EC74D01AB6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E00D485-2168-49F5-81AF-A71D2D1D584A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
     <sheet name="2018" sheetId="1" r:id="rId2"/>
     <sheet name="2019" sheetId="4" r:id="rId3"/>
     <sheet name="2020" sheetId="5" r:id="rId4"/>
-    <sheet name="Overall Stats" sheetId="3" r:id="rId5"/>
+    <sheet name="2021" sheetId="6" r:id="rId5"/>
+    <sheet name="Overall Stats" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="71">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -233,6 +241,15 @@
   </si>
   <si>
     <t>Fishing Report 2020 Adams</t>
+  </si>
+  <si>
+    <t>Fishing Report 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June </t>
+  </si>
+  <si>
+    <t>5 Rainbow 1 Wiper</t>
   </si>
 </sst>
 </file>
@@ -405,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -473,6 +490,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -482,11 +509,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -776,10 +802,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>570</c:v>
+                  <c:v>606</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1333,6 +1359,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-4EE7-4FD1-BED4-121935FD916B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1367,22 +1398,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.7507598784194522</c:v>
+                  <c:v>7.3381294964028774</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1519756838905775</c:v>
+                  <c:v>0.14388489208633093</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2553191489361701</c:v>
+                  <c:v>4.028776978417266</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.303951367781155</c:v>
+                  <c:v>0.28776978417266186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86.626139817629181</c:v>
+                  <c:v>87.194244604316552</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91185410334346495</c:v>
+                  <c:v>1.0071942446043165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2990,22 +3021,22 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
@@ -3071,12 +3102,12 @@
       <c r="E5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -3472,23 +3503,23 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -3569,12 +3600,12 @@
       <c r="H5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -3932,23 +3963,23 @@
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
     </row>
@@ -4020,12 +4051,12 @@
       <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
@@ -4304,8 +4335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F554279C-9D13-40B6-AC1F-9D2031B696E4}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4341,24 +4372,24 @@
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
     </row>
@@ -4440,12 +4471,12 @@
       <c r="G5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
@@ -4686,11 +4717,270 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3343D64-C970-47CC-97D6-17B8C8724F01}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+    </row>
+    <row r="3" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="37"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8">
+        <v>5</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8">
+        <v>36</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
+        <v>13</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8">
+        <v>2</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <v>23</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8">
+        <v>6</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>30</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8">
+        <v>5</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="18">
+        <f>SUM(I4/$G$10*100)</f>
+        <v>97.297297297297305</v>
+      </c>
+      <c r="J7" s="18">
+        <f>SUM(J4/$G$10*100)</f>
+        <v>2.7027027027027026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8">
+        <v>4</v>
+      </c>
+      <c r="G8" s="8">
+        <v>10</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8">
+        <v>21</v>
+      </c>
+      <c r="G9" s="8">
+        <v>9</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(G4:G9)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="12">
+        <f>AVERAGE(G4:G9)</f>
+        <v>6.166666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I5:L5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1CA989-3A01-4014-AE07-8387268A40B0}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4704,14 +4994,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -4729,7 +5019,7 @@
       <c r="E2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="30" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4751,22 +5041,22 @@
         <v>2</v>
       </c>
       <c r="E3" s="8">
-        <f>SUM('2017'!H4+'2018'!L4+'2019'!H4+'2020'!J4)</f>
-        <v>570</v>
+        <f>SUM('2017'!H4+'2018'!L4+'2019'!H4+'2020'!J4+'2021'!I4)</f>
+        <v>606</v>
       </c>
       <c r="F3" s="8">
-        <f>SUM('2017'!I4+'2019'!I4+'2020'!K4)</f>
-        <v>6</v>
+        <f>SUM('2017'!I4+'2019'!I4+'2020'!K4+'2021'!J4)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -4784,34 +5074,34 @@
       <c r="E5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="31" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <f>SUM(A3/$B$8*100)</f>
-        <v>7.7507598784194522</v>
+        <v>7.3381294964028774</v>
       </c>
       <c r="B6" s="18">
         <f t="shared" ref="B6:F6" si="0">SUM(B3/$B$8*100)</f>
-        <v>0.1519756838905775</v>
+        <v>0.14388489208633093</v>
       </c>
       <c r="C6" s="18">
         <f t="shared" si="0"/>
-        <v>4.2553191489361701</v>
+        <v>4.028776978417266</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0.303951367781155</v>
+        <v>0.28776978417266186</v>
       </c>
       <c r="E6" s="18">
         <f t="shared" si="0"/>
-        <v>86.626139817629181</v>
+        <v>87.194244604316552</v>
       </c>
       <c r="F6" s="18">
         <f t="shared" si="0"/>
-        <v>0.91185410334346495</v>
+        <v>1.0071942446043165</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4819,8 +5109,8 @@
         <v>21</v>
       </c>
       <c r="B8" s="15">
-        <f>SUM('2017'!D25+'2018'!G20+'2019'!E16+'2020'!F14)</f>
-        <v>658</v>
+        <f>SUM('2017'!D25+'2018'!G20+'2019'!E16+'2020'!F14+'2021'!G10)</f>
+        <v>695</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4828,8 +5118,8 @@
         <v>22</v>
       </c>
       <c r="B9" s="17">
-        <f>SUM('2017'!D26+'2018'!G21+'2019'!E17+'2020'!F15)</f>
-        <v>60</v>
+        <f>SUM('2017'!D26+'2018'!G21+'2019'!E17+'2020'!F15+'2021'!G11)</f>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4838,7 +5128,7 @@
       </c>
       <c r="B10" s="17">
         <f>SUM(B8/B9)</f>
-        <v>10.966666666666667</v>
+        <v>10.530303030303031</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">

--- a/Overall Stats/Adams/Adams Report.xlsx
+++ b/Overall Stats/Adams/Adams Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Adams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E00D485-2168-49F5-81AF-A71D2D1D584A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B0582F-29A6-488C-83FB-B6AF73DD868C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -243,13 +243,13 @@
     <t>Fishing Report 2020 Adams</t>
   </si>
   <si>
-    <t>Fishing Report 2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">June </t>
   </si>
   <si>
     <t>5 Rainbow 1 Wiper</t>
+  </si>
+  <si>
+    <t>Fishing Report 2021 Adams</t>
   </si>
 </sst>
 </file>
@@ -497,6 +497,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,12 +513,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3021,22 +3021,22 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="32"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
@@ -3102,12 +3102,12 @@
       <c r="E5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -3503,23 +3503,23 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -3600,12 +3600,12 @@
       <c r="H5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -3963,23 +3963,23 @@
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
     </row>
@@ -4051,12 +4051,12 @@
       <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
@@ -4372,24 +4372,24 @@
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
     </row>
@@ -4471,12 +4471,12 @@
       <c r="G5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
@@ -4720,13 +4720,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3343D64-C970-47CC-97D6-17B8C8724F01}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
@@ -4740,36 +4740,36 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="G1" s="36"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="28" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -4780,7 +4780,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>6</v>
@@ -4788,7 +4788,7 @@
       <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="37"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="5"/>
       <c r="I3" s="8" t="s">
         <v>25</v>
@@ -4838,12 +4838,12 @@
       <c r="H5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -4860,7 +4860,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>25</v>
@@ -4979,7 +4979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1CA989-3A01-4014-AE07-8387268A40B0}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -4994,13 +4994,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -5050,13 +5050,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">

--- a/Overall Stats/Adams/Adams Report.xlsx
+++ b/Overall Stats/Adams/Adams Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Adams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B0582F-29A6-488C-83FB-B6AF73DD868C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209444F0-D67D-4080-95D8-8A98CAF33A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -4720,8 +4720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3343D64-C970-47CC-97D6-17B8C8724F01}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4979,8 +4979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1CA989-3A01-4014-AE07-8387268A40B0}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Overall Stats/Adams/Adams Report.xlsx
+++ b/Overall Stats/Adams/Adams Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Adams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209444F0-D67D-4080-95D8-8A98CAF33A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4B8BD7-1B34-49C2-8D09-8617C563476F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="70">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>Fishing Report 2020 Adams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June </t>
   </si>
   <si>
     <t>5 Rainbow 1 Wiper</t>
@@ -4718,36 +4715,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3343D64-C970-47CC-97D6-17B8C8724F01}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:L7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
@@ -4756,48 +4749,40 @@
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="28" t="s">
+      <c r="E2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="F2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="G2" s="37" t="s">
         <v>24</v>
       </c>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-    </row>
-    <row r="3" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="8" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -4806,170 +4791,158 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="E4" s="8">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="G4" s="8">
-        <v>5</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="8">
         <v>36</v>
       </c>
-      <c r="J4" s="8">
+      <c r="H4" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="C5" s="8">
+        <v>13</v>
+      </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8">
-        <v>13</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8">
         <v>2</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="G5" s="36" t="s">
         <v>29</v>
       </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
       <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8">
+        <v>23</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8">
-        <v>23</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8">
         <v>6</v>
       </c>
+      <c r="F6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="H6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8">
+        <v>30</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8">
-        <v>30</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8">
         <v>5</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="18">
-        <f>SUM(I4/$G$10*100)</f>
+      <c r="G7" s="18">
+        <f>SUM(G4/$E$10*100)</f>
         <v>97.297297297297305</v>
       </c>
-      <c r="J7" s="18">
-        <f>SUM(J4/$G$10*100)</f>
+      <c r="H7" s="18">
+        <f>SUM(H4/$E$10*100)</f>
         <v>2.7027027027027026</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8">
+      <c r="D8" s="8">
         <v>4</v>
       </c>
-      <c r="G8" s="8">
+      <c r="E8" s="8">
         <v>10</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8">
+      <c r="D9" s="8">
         <v>21</v>
       </c>
-      <c r="G9" s="8">
+      <c r="E9" s="8">
         <v>9</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="10">
-        <f>SUM(G4:G9)</f>
+      <c r="E10" s="10">
+        <f>SUM(E4:E9)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="12">
+      <c r="E11" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="12">
-        <f>AVERAGE(G4:G9)</f>
+      <c r="E12" s="12">
+        <f>AVERAGE(E4:E9)</f>
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="E13" s="26" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4979,7 +4952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1CA989-3A01-4014-AE07-8387268A40B0}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -5041,11 +5014,11 @@
         <v>2</v>
       </c>
       <c r="E3" s="8">
-        <f>SUM('2017'!H4+'2018'!L4+'2019'!H4+'2020'!J4+'2021'!I4)</f>
+        <f>SUM('2017'!H4+'2018'!L4+'2019'!H4+'2020'!J4+'2021'!G4)</f>
         <v>606</v>
       </c>
       <c r="F3" s="8">
-        <f>SUM('2017'!I4+'2019'!I4+'2020'!K4+'2021'!J4)</f>
+        <f>SUM('2017'!I4+'2019'!I4+'2020'!K4+'2021'!H4)</f>
         <v>7</v>
       </c>
     </row>
@@ -5109,7 +5082,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="15">
-        <f>SUM('2017'!D25+'2018'!G20+'2019'!E16+'2020'!F14+'2021'!G10)</f>
+        <f>SUM('2017'!D25+'2018'!G20+'2019'!E16+'2020'!F14+'2021'!E10)</f>
         <v>695</v>
       </c>
     </row>
@@ -5118,7 +5091,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="17">
-        <f>SUM('2017'!D26+'2018'!G21+'2019'!E17+'2020'!F15+'2021'!G11)</f>
+        <f>SUM('2017'!D26+'2018'!G21+'2019'!E17+'2020'!F15+'2021'!E11)</f>
         <v>66</v>
       </c>
     </row>
